--- a/01_Dataset_Cleaned/tc_df_FullEquil_check.xlsx
+++ b/01_Dataset_Cleaned/tc_df_FullEquil_check.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>V</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -502,9 +502,7 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -526,14 +524,12 @@
         <v>1173.15</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -555,16 +551,14 @@
         <v>1173.15</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.000000000000001</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +578,14 @@
         <v>1173.15</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9999999999999993</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +605,14 @@
         <v>1173.15</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.000000000000001</v>
-      </c>
+        <v>0.9999999999999977</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999977</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +632,14 @@
         <v>1173.15</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.000000000000001</v>
-      </c>
+        <v>0.9999999999999981</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999981</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +659,14 @@
         <v>1173.15</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9999999999999967</v>
-      </c>
+        <v>0.9999999999999986</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.9999999999999967</v>
+        <v>0.9999999999999986</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +686,14 @@
         <v>1173.15</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9999999999999997</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +713,14 @@
         <v>1173.15</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +740,14 @@
         <v>1173.15</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9999999999999994</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +767,14 @@
         <v>1173.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.000000000000001</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +794,14 @@
         <v>1173.15</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.9999999999999997</v>
-      </c>
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="14">
@@ -845,14 +821,12 @@
         <v>1173.15</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>1</v>
       </c>
@@ -874,16 +848,14 @@
         <v>1173.15</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.000000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -903,14 +875,12 @@
         <v>1173.15</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>1</v>
       </c>
@@ -932,16 +902,14 @@
         <v>1173.15</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9999999999999991</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="18">
@@ -961,14 +929,12 @@
         <v>1173.15</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>1</v>
       </c>
@@ -990,14 +956,12 @@
         <v>1173.15</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>0.9999999999999999</v>
       </c>
@@ -1019,16 +983,14 @@
         <v>1173.15</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9999999999999994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1048,14 +1010,12 @@
         <v>1173.15</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
         <v>0.9999999999999998</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>0.9999999999999998</v>
       </c>
@@ -1077,16 +1037,14 @@
         <v>1173.15</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="23">
@@ -1106,14 +1064,12 @@
         <v>1173.15</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>1</v>
       </c>
@@ -1135,14 +1091,12 @@
         <v>1173.15</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>1</v>
       </c>
@@ -1164,16 +1118,14 @@
         <v>1173.15</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.9999999999999997</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1145,14 @@
         <v>1173.15</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.9999999999999997</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1222,14 +1172,12 @@
         <v>1173.15</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
         <v>0.9999999999999993</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>0.9999999999999993</v>
       </c>
@@ -1251,16 +1199,14 @@
         <v>1173.15</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.9999999999999998</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1226,14 @@
         <v>1173.15</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.9999999999999992</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1253,14 @@
         <v>1173.15</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="31">
@@ -1338,16 +1280,14 @@
         <v>1173.15</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="32">
@@ -1367,16 +1307,14 @@
         <v>1173.15</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9999999999999991</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="33">
@@ -1396,16 +1334,14 @@
         <v>1173.15</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.9999999999999998</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1425,16 +1361,14 @@
         <v>1173.15</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.9999999999999981</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.9999999999999981</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="35">
@@ -1454,16 +1388,14 @@
         <v>1173.15</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="36">
@@ -1483,16 +1415,14 @@
         <v>1173.15</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.9999999999999971</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.9999999999999991</v>
-      </c>
+        <v>0.9999999999999971</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999971</v>
       </c>
     </row>
     <row r="37">
@@ -1512,16 +1442,14 @@
         <v>1173.15</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.000000000000002</v>
-      </c>
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="38">
@@ -1541,14 +1469,12 @@
         <v>1173.15</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.000000000000001</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>1.000000000000001</v>
       </c>
@@ -1570,16 +1496,14 @@
         <v>1173.15</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.9999999999999993</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1599,16 +1523,14 @@
         <v>1173.15</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.9999999999999996</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="41">
@@ -1628,16 +1550,14 @@
         <v>1173.15</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.000000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1657,16 +1577,14 @@
         <v>1223.15</v>
       </c>
       <c r="F42" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1686,16 +1604,14 @@
         <v>1223.15</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="44">
@@ -1720,9 +1636,7 @@
       <c r="G44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>1</v>
       </c>
@@ -1744,16 +1658,14 @@
         <v>1223.15</v>
       </c>
       <c r="F45" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G45" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="46">
@@ -1773,16 +1685,14 @@
         <v>1223.15</v>
       </c>
       <c r="F46" t="n">
-        <v>0.999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>0.999999999999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>0.999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1802,16 +1712,14 @@
         <v>1223.15</v>
       </c>
       <c r="F47" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="G47" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999978</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999978</v>
       </c>
     </row>
     <row r="48">
@@ -1836,9 +1744,7 @@
       <c r="G48" t="n">
         <v>1.000000000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
         <v>1.000000000000002</v>
       </c>
@@ -1860,16 +1766,14 @@
         <v>1223.15</v>
       </c>
       <c r="F49" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G49" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="50">
@@ -1889,16 +1793,14 @@
         <v>1223.15</v>
       </c>
       <c r="F50" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G50" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000007</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000007</v>
       </c>
     </row>
     <row r="51">
@@ -1918,16 +1820,14 @@
         <v>1223.15</v>
       </c>
       <c r="F51" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1947,16 +1847,14 @@
         <v>1223.15</v>
       </c>
       <c r="F52" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="G52" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="53">
@@ -1976,16 +1874,14 @@
         <v>1223.15</v>
       </c>
       <c r="F53" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="G53" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="54">
@@ -2005,16 +1901,14 @@
         <v>1223.15</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2039,9 +1933,7 @@
       <c r="G55" t="n">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
         <v>1</v>
       </c>
@@ -2063,16 +1955,14 @@
         <v>1223.15</v>
       </c>
       <c r="F56" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G56" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="57">
@@ -2092,16 +1982,14 @@
         <v>1223.15</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2121,16 +2009,14 @@
         <v>1223.15</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2155,9 +2041,7 @@
       <c r="G59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
         <v>1</v>
       </c>
@@ -2179,16 +2063,14 @@
         <v>1223.15</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2213,9 +2095,7 @@
       <c r="G61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
         <v>1</v>
       </c>
@@ -2237,16 +2117,14 @@
         <v>1223.15</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2266,16 +2144,14 @@
         <v>1223.15</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="64">
@@ -2295,16 +2171,14 @@
         <v>1223.15</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2329,9 +2203,7 @@
       <c r="G65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
         <v>1</v>
       </c>
@@ -2353,16 +2225,14 @@
         <v>1223.15</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2382,16 +2252,14 @@
         <v>1223.15</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -2411,16 +2279,14 @@
         <v>1223.15</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2440,16 +2306,14 @@
         <v>1223.15</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2474,9 +2338,7 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
         <v>1</v>
       </c>
@@ -2498,16 +2360,14 @@
         <v>1223.15</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999986</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
     </row>
     <row r="72">
@@ -2527,16 +2387,14 @@
         <v>1223.15</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9999999999999979</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9999999999999979</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>0.9999999999999979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2556,16 +2414,14 @@
         <v>1223.15</v>
       </c>
       <c r="F73" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G73" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="74">
@@ -2585,16 +2441,14 @@
         <v>1223.15</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9999999999999983</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999976</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999999999976</v>
       </c>
     </row>
     <row r="75">
@@ -2614,16 +2468,14 @@
         <v>1223.15</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9999999999999983</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="76">
@@ -2643,16 +2495,14 @@
         <v>1223.15</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9999999999999987</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999982</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="77">
@@ -2672,16 +2522,14 @@
         <v>1223.15</v>
       </c>
       <c r="F77" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="G77" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999983</v>
       </c>
     </row>
     <row r="78">
@@ -2701,16 +2549,14 @@
         <v>1223.15</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="79">
@@ -2730,16 +2576,14 @@
         <v>1223.15</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="80">
@@ -2764,9 +2608,7 @@
       <c r="G80" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>1</v>
       </c>
@@ -2788,16 +2630,14 @@
         <v>1223.15</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2822,9 +2662,7 @@
       <c r="G82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
         <v>1</v>
       </c>
@@ -2846,16 +2684,14 @@
         <v>1273.15</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -2875,16 +2711,14 @@
         <v>1273.15</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9999999999999993</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="85">
@@ -2904,16 +2738,14 @@
         <v>1273.15</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999986</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0.9999999999999986</v>
       </c>
     </row>
     <row r="86">
@@ -2933,16 +2765,14 @@
         <v>1273.15</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2962,16 +2792,14 @@
         <v>1273.15</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9999999999999976</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9999999999999976</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>0.9999999999999976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2991,16 +2819,14 @@
         <v>1273.15</v>
       </c>
       <c r="F88" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="G88" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000003</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000003</v>
       </c>
     </row>
     <row r="89">
@@ -3020,16 +2846,14 @@
         <v>1273.15</v>
       </c>
       <c r="F89" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="G89" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999987</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999987</v>
       </c>
     </row>
     <row r="90">
@@ -3049,16 +2873,14 @@
         <v>1273.15</v>
       </c>
       <c r="F90" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="G90" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000003</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000003</v>
       </c>
     </row>
     <row r="91">
@@ -3078,16 +2900,14 @@
         <v>1273.15</v>
       </c>
       <c r="F91" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="G91" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000003</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000003</v>
       </c>
     </row>
     <row r="92">
@@ -3107,16 +2927,14 @@
         <v>1273.15</v>
       </c>
       <c r="F92" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -3136,16 +2954,14 @@
         <v>1273.15</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -3165,16 +2981,14 @@
         <v>1273.15</v>
       </c>
       <c r="F94" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -3194,16 +3008,14 @@
         <v>1273.15</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3223,16 +3035,14 @@
         <v>1273.15</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="97">
@@ -3252,16 +3062,14 @@
         <v>1273.15</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="98">
@@ -3286,9 +3094,7 @@
       <c r="G98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
         <v>1</v>
       </c>
@@ -3310,16 +3116,14 @@
         <v>1273.15</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3339,16 +3143,14 @@
         <v>1273.15</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3368,16 +3170,14 @@
         <v>1273.15</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3397,16 +3197,14 @@
         <v>1273.15</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3426,16 +3224,14 @@
         <v>1273.15</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="104">
@@ -3455,16 +3251,14 @@
         <v>1273.15</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="105">
@@ -3484,16 +3278,14 @@
         <v>1273.15</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3513,16 +3305,14 @@
         <v>1273.15</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -3542,16 +3332,14 @@
         <v>1273.15</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -3571,16 +3359,14 @@
         <v>1273.15</v>
       </c>
       <c r="F108" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3600,16 +3386,14 @@
         <v>1273.15</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3629,16 +3413,14 @@
         <v>1273.15</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="111">
@@ -3658,16 +3440,14 @@
         <v>1273.15</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="112">
@@ -3687,16 +3467,14 @@
         <v>1273.15</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="G112" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999989</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999989</v>
       </c>
     </row>
     <row r="113">
@@ -3716,16 +3494,14 @@
         <v>1273.15</v>
       </c>
       <c r="F113" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -3745,16 +3521,14 @@
         <v>1273.15</v>
       </c>
       <c r="F114" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G114" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="115">
@@ -3774,16 +3548,14 @@
         <v>1273.15</v>
       </c>
       <c r="F115" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="G115" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999989</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999989</v>
       </c>
     </row>
     <row r="116">
@@ -3803,16 +3575,14 @@
         <v>1273.15</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -3832,16 +3602,14 @@
         <v>1273.15</v>
       </c>
       <c r="F117" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -3861,16 +3629,14 @@
         <v>1273.15</v>
       </c>
       <c r="F118" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -3890,16 +3656,14 @@
         <v>1273.15</v>
       </c>
       <c r="F119" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G119" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="120">
@@ -3919,16 +3683,14 @@
         <v>1273.15</v>
       </c>
       <c r="F120" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3948,16 +3710,14 @@
         <v>1273.15</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3977,16 +3737,14 @@
         <v>1323.15</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4006,16 +3764,14 @@
         <v>1323.15</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="124">
@@ -4040,9 +3796,7 @@
       <c r="G124" t="n">
         <v>1</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
         <v>1</v>
       </c>
@@ -4064,16 +3818,14 @@
         <v>1323.15</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9999999999999993</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4093,16 +3845,14 @@
         <v>1323.15</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="127">
@@ -4122,16 +3872,14 @@
         <v>1323.15</v>
       </c>
       <c r="F127" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G127" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000007</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000007</v>
       </c>
     </row>
     <row r="128">
@@ -4151,16 +3899,14 @@
         <v>1323.15</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999999999897</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9999999999999983</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999897</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999999999897</v>
       </c>
     </row>
     <row r="129">
@@ -4180,16 +3926,14 @@
         <v>1323.15</v>
       </c>
       <c r="F129" t="n">
-        <v>1.00000000000001</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="G129" t="n">
-        <v>1.00000000000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999964</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>1.00000000000001</v>
+        <v>0.9999999999999964</v>
       </c>
     </row>
     <row r="130">
@@ -4209,16 +3953,14 @@
         <v>1323.15</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9999999999999957</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9999999999999957</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>0.9999999999999957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4238,16 +3980,14 @@
         <v>1323.15</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.999999999999998</v>
       </c>
     </row>
     <row r="132">
@@ -4267,16 +4007,14 @@
         <v>1323.15</v>
       </c>
       <c r="F132" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G132" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="133">
@@ -4296,16 +4034,14 @@
         <v>1323.15</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G133" t="n">
-        <v>0.9999999999999991</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="134">
@@ -4325,16 +4061,14 @@
         <v>1323.15</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="135">
@@ -4354,16 +4088,14 @@
         <v>1323.15</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999987</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
     </row>
     <row r="136">
@@ -4388,9 +4120,7 @@
       <c r="G136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
         <v>1</v>
       </c>
@@ -4412,16 +4142,14 @@
         <v>1323.15</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4441,16 +4169,14 @@
         <v>1323.15</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -4475,9 +4201,7 @@
       <c r="G139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
         <v>1</v>
       </c>
@@ -4504,9 +4228,7 @@
       <c r="G140" t="n">
         <v>1</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
         <v>1</v>
       </c>
@@ -4528,16 +4250,14 @@
         <v>1323.15</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G141" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="142">
@@ -4557,16 +4277,14 @@
         <v>1323.15</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G142" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="143">
@@ -4586,16 +4304,14 @@
         <v>1323.15</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="144">
@@ -4620,9 +4336,7 @@
       <c r="G144" t="n">
         <v>1</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
         <v>1</v>
       </c>
@@ -4649,9 +4363,7 @@
       <c r="G145" t="n">
         <v>0.9999999999999998</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
         <v>0.9999999999999998</v>
       </c>
@@ -4673,16 +4385,14 @@
         <v>1323.15</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="147">
@@ -4702,16 +4412,14 @@
         <v>1323.15</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -4736,9 +4444,7 @@
       <c r="G148" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
         <v>0.9999999999999999</v>
       </c>
@@ -4760,16 +4466,14 @@
         <v>1323.15</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="150">
@@ -4789,16 +4493,14 @@
         <v>1323.15</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999992</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="151">
@@ -4818,16 +4520,14 @@
         <v>1323.15</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -4847,16 +4547,14 @@
         <v>1323.15</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="153">
@@ -4876,16 +4574,14 @@
         <v>1323.15</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="154">
@@ -4905,16 +4601,14 @@
         <v>1323.15</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4934,16 +4628,14 @@
         <v>1323.15</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="156">
@@ -4963,16 +4655,14 @@
         <v>1323.15</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="157">
@@ -4992,16 +4682,14 @@
         <v>1323.15</v>
       </c>
       <c r="F157" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G157" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="158">
@@ -5021,16 +4709,14 @@
         <v>1323.15</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9999999999999978</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="159">
@@ -5050,16 +4736,14 @@
         <v>1323.15</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G159" t="n">
-        <v>0.9999999999999984</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="160">
@@ -5079,16 +4763,14 @@
         <v>1323.15</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -5108,16 +4790,14 @@
         <v>1323.15</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="162">
@@ -5137,16 +4817,14 @@
         <v>1373.15</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -5171,9 +4849,7 @@
       <c r="G163" t="n">
         <v>1</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
         <v>1</v>
       </c>
@@ -5195,16 +4871,14 @@
         <v>1373.15</v>
       </c>
       <c r="F164" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5224,16 +4898,14 @@
         <v>1373.15</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5253,16 +4925,14 @@
         <v>1373.15</v>
       </c>
       <c r="F166" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5282,16 +4952,14 @@
         <v>1373.15</v>
       </c>
       <c r="F167" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="G167" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000004</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="168">
@@ -5311,16 +4979,14 @@
         <v>1373.15</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000003</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000003</v>
       </c>
     </row>
     <row r="169">
@@ -5340,16 +5006,14 @@
         <v>1373.15</v>
       </c>
       <c r="F169" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G169" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="170">
@@ -5369,16 +5033,14 @@
         <v>1373.15</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9999999999999957</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>0.9999999999999957</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>0.9999999999999957</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="171">
@@ -5398,16 +5060,14 @@
         <v>1373.15</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9999999999999971</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9999999999999971</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000003</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>0.9999999999999971</v>
+        <v>1.000000000000003</v>
       </c>
     </row>
     <row r="172">
@@ -5427,16 +5087,14 @@
         <v>1373.15</v>
       </c>
       <c r="F172" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G172" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="173">
@@ -5461,9 +5119,7 @@
       <c r="G173" t="n">
         <v>0.9999999999999997</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
         <v>0.9999999999999997</v>
       </c>
@@ -5485,16 +5141,14 @@
         <v>1373.15</v>
       </c>
       <c r="F174" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5514,16 +5168,14 @@
         <v>1373.15</v>
       </c>
       <c r="F175" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G175" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="176">
@@ -5543,16 +5195,14 @@
         <v>1373.15</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G176" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="177">
@@ -5572,16 +5222,14 @@
         <v>1373.15</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5601,16 +5249,14 @@
         <v>1373.15</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5630,16 +5276,14 @@
         <v>1373.15</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="180">
@@ -5664,9 +5308,7 @@
       <c r="G180" t="n">
         <v>1</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
         <v>1</v>
       </c>
@@ -5688,16 +5330,14 @@
         <v>1373.15</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="182">
@@ -5717,16 +5357,14 @@
         <v>1373.15</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5746,16 +5384,14 @@
         <v>1373.15</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5775,16 +5411,14 @@
         <v>1373.15</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5804,16 +5438,14 @@
         <v>1373.15</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="186">
@@ -5833,16 +5465,14 @@
         <v>1373.15</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="187">
@@ -5867,9 +5497,7 @@
       <c r="G187" t="n">
         <v>1</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
         <v>1</v>
       </c>
@@ -5891,16 +5519,14 @@
         <v>1373.15</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5920,16 +5546,14 @@
         <v>1373.15</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="190">
@@ -5949,16 +5573,14 @@
         <v>1373.15</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="191">
@@ -5978,16 +5600,14 @@
         <v>1373.15</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G191" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="192">
@@ -6007,16 +5627,14 @@
         <v>1373.15</v>
       </c>
       <c r="F192" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -6036,16 +5654,14 @@
         <v>1373.15</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9999999999999989</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G193" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>0.9999999999999989</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="194">
@@ -6065,16 +5681,14 @@
         <v>1373.15</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9999999999999976</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9999999999999976</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>0.9999999999999976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -6099,9 +5713,7 @@
       <c r="G195" t="n">
         <v>1</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
         <v>1</v>
       </c>
@@ -6123,16 +5735,14 @@
         <v>1373.15</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G196" t="n">
-        <v>0.9999999999999984</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="197">
@@ -6152,16 +5762,14 @@
         <v>1373.15</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9999999999999967</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G197" t="n">
-        <v>0.9999999999999967</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>0.9999999999999967</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="198">
@@ -6186,9 +5794,7 @@
       <c r="G198" t="n">
         <v>0.9999999999999989</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
         <v>0.9999999999999989</v>
       </c>
@@ -6210,16 +5816,14 @@
         <v>1373.15</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6239,16 +5843,14 @@
         <v>1373.15</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9999999999999984</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9999999999999984</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>0.9999999999999984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -6268,16 +5870,14 @@
         <v>1373.15</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G201" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="202">
@@ -6297,16 +5897,14 @@
         <v>1423.15</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="203">
@@ -6326,16 +5924,14 @@
         <v>1423.15</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="204">
@@ -6355,16 +5951,14 @@
         <v>1423.15</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="205">
@@ -6384,16 +5978,14 @@
         <v>1423.15</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="206">
@@ -6413,16 +6005,14 @@
         <v>1423.15</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9999999999999967</v>
+        <v>0.9999999999999963</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9999999999999967</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999963</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>0.9999999999999967</v>
+        <v>0.9999999999999963</v>
       </c>
     </row>
     <row r="207">
@@ -6442,16 +6032,14 @@
         <v>1423.15</v>
       </c>
       <c r="F207" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9999999999999967</v>
       </c>
       <c r="G207" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999967</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9999999999999967</v>
       </c>
     </row>
     <row r="208">
@@ -6471,16 +6059,14 @@
         <v>1423.15</v>
       </c>
       <c r="F208" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999954</v>
       </c>
       <c r="G208" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999954</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999954</v>
       </c>
     </row>
     <row r="209">
@@ -6500,16 +6086,14 @@
         <v>1423.15</v>
       </c>
       <c r="F209" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="G209" t="n">
-        <v>1.000000000000004</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000007</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000007</v>
       </c>
     </row>
     <row r="210">
@@ -6529,16 +6113,14 @@
         <v>1423.15</v>
       </c>
       <c r="F210" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="G210" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000004</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="211">
@@ -6558,16 +6140,14 @@
         <v>1423.15</v>
       </c>
       <c r="F211" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -6587,16 +6167,14 @@
         <v>1423.15</v>
       </c>
       <c r="F212" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G212" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="213">
@@ -6616,16 +6194,14 @@
         <v>1423.15</v>
       </c>
       <c r="F213" t="n">
-        <v>0.9999999999999972</v>
+        <v>0.9999999999999962</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9999999999999972</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999962</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>0.9999999999999972</v>
+        <v>0.9999999999999962</v>
       </c>
     </row>
     <row r="214">
@@ -6645,16 +6221,14 @@
         <v>1423.15</v>
       </c>
       <c r="F214" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="215">
@@ -6674,16 +6248,14 @@
         <v>1423.15</v>
       </c>
       <c r="F215" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G215" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -6703,16 +6275,14 @@
         <v>1423.15</v>
       </c>
       <c r="F216" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6732,16 +6302,14 @@
         <v>1423.15</v>
       </c>
       <c r="F217" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G217" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -6761,16 +6329,14 @@
         <v>1423.15</v>
       </c>
       <c r="F218" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G218" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="219">
@@ -6790,16 +6356,14 @@
         <v>1423.15</v>
       </c>
       <c r="F219" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G219" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="220">
@@ -6819,16 +6383,14 @@
         <v>1423.15</v>
       </c>
       <c r="F220" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G220" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="221">
@@ -6848,16 +6410,14 @@
         <v>1423.15</v>
       </c>
       <c r="F221" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="222">
@@ -6882,9 +6442,7 @@
       <c r="G222" t="n">
         <v>1</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="n">
         <v>1</v>
       </c>
@@ -6911,9 +6469,7 @@
       <c r="G223" t="n">
         <v>0.9999999999999997</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="n">
         <v>0.9999999999999997</v>
       </c>
@@ -6940,9 +6496,7 @@
       <c r="G224" t="n">
         <v>1</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
         <v>1</v>
       </c>
@@ -6969,9 +6523,7 @@
       <c r="G225" t="n">
         <v>1</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
         <v>1</v>
       </c>
@@ -6993,16 +6545,14 @@
         <v>1423.15</v>
       </c>
       <c r="F226" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G226" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="227">
@@ -7022,16 +6572,14 @@
         <v>1423.15</v>
       </c>
       <c r="F227" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -7051,16 +6599,14 @@
         <v>1423.15</v>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -7085,9 +6631,7 @@
       <c r="G229" t="n">
         <v>0.9999999999999996</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="n">
         <v>0.9999999999999996</v>
       </c>
@@ -7109,16 +6653,14 @@
         <v>1423.15</v>
       </c>
       <c r="F230" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G230" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="231">
@@ -7138,16 +6680,14 @@
         <v>1423.15</v>
       </c>
       <c r="F231" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -7167,16 +6707,14 @@
         <v>1423.15</v>
       </c>
       <c r="F232" t="n">
-        <v>1.000000000000002</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G232" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>1.000000000000002</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="233">
@@ -7196,16 +6734,14 @@
         <v>1423.15</v>
       </c>
       <c r="F233" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="234">
@@ -7225,16 +6761,14 @@
         <v>1423.15</v>
       </c>
       <c r="F234" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="235">
@@ -7254,16 +6788,14 @@
         <v>1423.15</v>
       </c>
       <c r="F235" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="G235" t="n">
-        <v>0.9999999999999984</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="236">
@@ -7283,16 +6815,14 @@
         <v>1423.15</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="237">
@@ -7312,16 +6842,14 @@
         <v>1423.15</v>
       </c>
       <c r="F237" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -7341,16 +6869,14 @@
         <v>1423.15</v>
       </c>
       <c r="F238" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G238" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="239">
@@ -7370,16 +6896,14 @@
         <v>1423.15</v>
       </c>
       <c r="F239" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="240">
@@ -7399,16 +6923,14 @@
         <v>1423.15</v>
       </c>
       <c r="F240" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G240" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="241">
@@ -7428,16 +6950,14 @@
         <v>1423.15</v>
       </c>
       <c r="F241" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G241" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="242">
@@ -7457,16 +6977,14 @@
         <v>1473.15</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="243">
@@ -7486,16 +7004,14 @@
         <v>1473.15</v>
       </c>
       <c r="F243" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G243" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="244">
@@ -7515,16 +7031,14 @@
         <v>1473.15</v>
       </c>
       <c r="F244" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G244" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="245">
@@ -7544,16 +7058,14 @@
         <v>1473.15</v>
       </c>
       <c r="F245" t="n">
-        <v>0.9999999999999978</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G245" t="n">
-        <v>0.9999999999999978</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>0.9999999999999978</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="246">
@@ -7573,16 +7085,14 @@
         <v>1473.15</v>
       </c>
       <c r="F246" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G246" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="247">
@@ -7602,16 +7112,14 @@
         <v>1473.15</v>
       </c>
       <c r="F247" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999943</v>
       </c>
       <c r="G247" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999943</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="n">
-        <v>1.000000000000003</v>
+        <v>0.9999999999999943</v>
       </c>
     </row>
     <row r="248">
@@ -7631,16 +7139,14 @@
         <v>1473.15</v>
       </c>
       <c r="F248" t="n">
-        <v>0.9999999999999974</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="G248" t="n">
-        <v>0.9999999999999974</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="n">
-        <v>0.9999999999999974</v>
+        <v>0.9999999999999983</v>
       </c>
     </row>
     <row r="249">
@@ -7660,16 +7166,14 @@
         <v>1473.15</v>
       </c>
       <c r="F249" t="n">
-        <v>0.9999999999999982</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G249" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
-        <v>0.9999999999999982</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="250">
@@ -7689,16 +7193,14 @@
         <v>1473.15</v>
       </c>
       <c r="F250" t="n">
-        <v>1.000000000000005</v>
+        <v>1.00000000000001</v>
       </c>
       <c r="G250" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>1.00000000000001</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="n">
-        <v>1.000000000000005</v>
+        <v>1.00000000000001</v>
       </c>
     </row>
     <row r="251">
@@ -7718,16 +7220,14 @@
         <v>1473.15</v>
       </c>
       <c r="F251" t="n">
-        <v>0.9999999999999987</v>
+        <v>1.000000000000011</v>
       </c>
       <c r="G251" t="n">
-        <v>0.9999999999999987</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000011</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>0.9999999999999987</v>
+        <v>1.000000000000011</v>
       </c>
     </row>
     <row r="252">
@@ -7747,16 +7247,14 @@
         <v>1473.15</v>
       </c>
       <c r="F252" t="n">
-        <v>0.999999999999998</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G252" t="n">
-        <v>0.999999999999998</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999986</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="n">
-        <v>0.999999999999998</v>
+        <v>0.9999999999999986</v>
       </c>
     </row>
     <row r="253">
@@ -7781,9 +7279,7 @@
       <c r="G253" t="n">
         <v>1.000000000000002</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="n">
         <v>1.000000000000002</v>
       </c>
@@ -7805,16 +7301,14 @@
         <v>1473.15</v>
       </c>
       <c r="F254" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G254" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="255">
@@ -7834,16 +7328,14 @@
         <v>1473.15</v>
       </c>
       <c r="F255" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G255" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="256">
@@ -7863,16 +7355,14 @@
         <v>1473.15</v>
       </c>
       <c r="F256" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="257">
@@ -7892,16 +7382,14 @@
         <v>1473.15</v>
       </c>
       <c r="F257" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G257" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="258">
@@ -7921,16 +7409,14 @@
         <v>1473.15</v>
       </c>
       <c r="F258" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G258" t="n">
-        <v>0.9999999999999993</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="259">
@@ -7950,16 +7436,14 @@
         <v>1473.15</v>
       </c>
       <c r="F259" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -7979,16 +7463,14 @@
         <v>1473.15</v>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="261">
@@ -8008,16 +7490,14 @@
         <v>1473.15</v>
       </c>
       <c r="F261" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -8037,16 +7517,14 @@
         <v>1473.15</v>
       </c>
       <c r="F262" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G262" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="263">
@@ -8071,9 +7549,7 @@
       <c r="G263" t="n">
         <v>1</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="n">
         <v>1</v>
       </c>
@@ -8095,16 +7571,14 @@
         <v>1473.15</v>
       </c>
       <c r="F264" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="265">
@@ -8124,16 +7598,14 @@
         <v>1473.15</v>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="266">
@@ -8153,16 +7625,14 @@
         <v>1473.15</v>
       </c>
       <c r="F266" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -8182,16 +7652,14 @@
         <v>1473.15</v>
       </c>
       <c r="F267" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="268">
@@ -8211,16 +7679,14 @@
         <v>1473.15</v>
       </c>
       <c r="F268" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G268" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="269">
@@ -8245,9 +7711,7 @@
       <c r="G269" t="n">
         <v>1</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="n">
         <v>1</v>
       </c>
@@ -8269,16 +7733,14 @@
         <v>1473.15</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="271">
@@ -8298,16 +7760,14 @@
         <v>1473.15</v>
       </c>
       <c r="F271" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G271" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="272">
@@ -8332,9 +7792,7 @@
       <c r="G272" t="n">
         <v>1</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
         <v>1</v>
       </c>
@@ -8361,9 +7819,7 @@
       <c r="G273" t="n">
         <v>1</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
         <v>1</v>
       </c>
@@ -8385,16 +7841,14 @@
         <v>1473.15</v>
       </c>
       <c r="F274" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="G274" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="275">
@@ -8414,16 +7868,14 @@
         <v>1473.15</v>
       </c>
       <c r="F275" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G275" t="n">
-        <v>0.9999999999999984</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="276">
@@ -8443,16 +7895,14 @@
         <v>1473.15</v>
       </c>
       <c r="F276" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="277">
@@ -8472,16 +7922,14 @@
         <v>1473.15</v>
       </c>
       <c r="F277" t="n">
-        <v>0.9999999999999973</v>
+        <v>1</v>
       </c>
       <c r="G277" t="n">
-        <v>0.9999999999999973</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>0.9999999999999973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -8501,16 +7949,14 @@
         <v>1473.15</v>
       </c>
       <c r="F278" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G278" t="n">
-        <v>0.9999999999999973</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="279">
@@ -8530,16 +7976,14 @@
         <v>1473.15</v>
       </c>
       <c r="F279" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G279" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="280">
@@ -8559,16 +8003,14 @@
         <v>1473.15</v>
       </c>
       <c r="F280" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G280" t="n">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>0.9999999999999998</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="281">
@@ -8588,16 +8030,14 @@
         <v>1473.15</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="282">
@@ -8617,16 +8057,14 @@
         <v>1523.15</v>
       </c>
       <c r="F282" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="283">
@@ -8651,9 +8089,7 @@
       <c r="G283" t="n">
         <v>1</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="n">
         <v>1</v>
       </c>
@@ -8675,16 +8111,14 @@
         <v>1523.15</v>
       </c>
       <c r="F284" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G284" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="285">
@@ -8704,16 +8138,14 @@
         <v>1523.15</v>
       </c>
       <c r="F285" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G285" t="n">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="286">
@@ -8733,16 +8165,14 @@
         <v>1523.15</v>
       </c>
       <c r="F286" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -8762,16 +8192,14 @@
         <v>1523.15</v>
       </c>
       <c r="F287" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="G287" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000004</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="288">
@@ -8791,16 +8219,14 @@
         <v>1523.15</v>
       </c>
       <c r="F288" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G288" t="n">
-        <v>1.000000000000007</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="289">
@@ -8820,16 +8246,14 @@
         <v>1523.15</v>
       </c>
       <c r="F289" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9999999999999889</v>
       </c>
       <c r="G289" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999889</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9999999999999889</v>
       </c>
     </row>
     <row r="290">
@@ -8849,16 +8273,14 @@
         <v>1523.15</v>
       </c>
       <c r="F290" t="n">
-        <v>0.999999999999995</v>
+        <v>0.9999999999999903</v>
       </c>
       <c r="G290" t="n">
-        <v>0.999999999999995</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="n">
-        <v>0.999999999999995</v>
+        <v>0.9999999999999903</v>
       </c>
     </row>
     <row r="291">
@@ -8878,16 +8300,14 @@
         <v>1523.15</v>
       </c>
       <c r="F291" t="n">
-        <v>1.000000000000008</v>
+        <v>0.9999999999999916</v>
       </c>
       <c r="G291" t="n">
-        <v>1.000000000000008</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999916</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="n">
-        <v>1.000000000000008</v>
+        <v>0.9999999999999916</v>
       </c>
     </row>
     <row r="292">
@@ -8907,16 +8327,14 @@
         <v>1523.15</v>
       </c>
       <c r="F292" t="n">
-        <v>0.9999999999999986</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="G292" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999982</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="n">
-        <v>0.9999999999999986</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="293">
@@ -8936,16 +8354,14 @@
         <v>1523.15</v>
       </c>
       <c r="F293" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G293" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="294">
@@ -8965,16 +8381,14 @@
         <v>1523.15</v>
       </c>
       <c r="F294" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G294" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="295">
@@ -8994,16 +8408,14 @@
         <v>1523.15</v>
       </c>
       <c r="F295" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="G295" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="296">
@@ -9028,9 +8440,7 @@
       <c r="G296" t="n">
         <v>1</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
         <v>1</v>
       </c>
@@ -9052,16 +8462,14 @@
         <v>1523.15</v>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="298">
@@ -9086,9 +8494,7 @@
       <c r="G298" t="n">
         <v>1</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="n">
         <v>1</v>
       </c>
@@ -9110,16 +8516,14 @@
         <v>1523.15</v>
       </c>
       <c r="F299" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G299" t="n">
-        <v>0.9999999999999993</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="300">
@@ -9139,16 +8543,14 @@
         <v>1523.15</v>
       </c>
       <c r="F300" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="301">
@@ -9173,9 +8575,7 @@
       <c r="G301" t="n">
         <v>0.9999999999999994</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="n">
         <v>0.9999999999999994</v>
       </c>
@@ -9202,9 +8602,7 @@
       <c r="G302" t="n">
         <v>1</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="n">
         <v>1</v>
       </c>
@@ -9231,9 +8629,7 @@
       <c r="G303" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="n">
         <v>0.9999999999999999</v>
       </c>
@@ -9255,16 +8651,14 @@
         <v>1523.15</v>
       </c>
       <c r="F304" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G304" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="305">
@@ -9284,16 +8678,14 @@
         <v>1523.15</v>
       </c>
       <c r="F305" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G305" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -9313,16 +8705,14 @@
         <v>1523.15</v>
       </c>
       <c r="F306" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="307">
@@ -9342,16 +8732,14 @@
         <v>1523.15</v>
       </c>
       <c r="F307" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="G307" t="n">
-        <v>0.9999999999999993</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -9376,9 +8764,7 @@
       <c r="G308" t="n">
         <v>1</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="n">
         <v>1</v>
       </c>
@@ -9405,9 +8791,7 @@
       <c r="G309" t="n">
         <v>0.9999999999999997</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="n">
         <v>0.9999999999999997</v>
       </c>
@@ -9429,16 +8813,14 @@
         <v>1523.15</v>
       </c>
       <c r="F310" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="G310" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="311">
@@ -9458,16 +8840,14 @@
         <v>1523.15</v>
       </c>
       <c r="F311" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G311" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="312">
@@ -9487,16 +8867,14 @@
         <v>1523.15</v>
       </c>
       <c r="F312" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="G312" t="n">
-        <v>0.9999999999999993</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -9521,9 +8899,7 @@
       <c r="G313" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="n">
         <v>0.9999999999999999</v>
       </c>
@@ -9545,16 +8921,14 @@
         <v>1523.15</v>
       </c>
       <c r="F314" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="315">
@@ -9574,16 +8948,14 @@
         <v>1523.15</v>
       </c>
       <c r="F315" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G315" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -9603,16 +8975,14 @@
         <v>1523.15</v>
       </c>
       <c r="F316" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G316" t="n">
-        <v>0.9999999999999991</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="317">
@@ -9632,16 +9002,14 @@
         <v>1523.15</v>
       </c>
       <c r="F317" t="n">
-        <v>1</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0.9999999999999983</v>
       </c>
     </row>
     <row r="318">
@@ -9661,16 +9029,14 @@
         <v>1523.15</v>
       </c>
       <c r="F318" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G318" t="n">
-        <v>0.9999999999999984</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="319">
@@ -9695,9 +9061,7 @@
       <c r="G319" t="n">
         <v>1</v>
       </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="n">
         <v>1</v>
       </c>
@@ -9719,16 +9083,14 @@
         <v>1523.15</v>
       </c>
       <c r="F320" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G320" t="n">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>1.000000000000001</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="n">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="321">
@@ -9748,16 +9110,14 @@
         <v>1523.15</v>
       </c>
       <c r="F321" t="n">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G321" t="n">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="n">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
